--- a/Test/Lawnmower/T2/Sensors_data_1000026.xlsx
+++ b/Test/Lawnmower/T2/Sensors_data_1000026.xlsx
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.965536168656254</v>
+        <v>0.9851213402381708</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002526432106845603</v>
+        <v>0.0009413319819391476</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07258971148694598</v>
+        <v>0.2148225691296222</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9888578139043612</v>
+        <v>0.9792219999706473</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0009912757628573853</v>
+        <v>0.0009521423018720521</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09399621901574168</v>
+        <v>0.04605348348818328</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -525,16 +525,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.2409824149723215</v>
+        <v>0.9584334888669542</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04802096015890953</v>
+        <v>0.001045651879674781</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6065430582974807</v>
+        <v>0.09266255790282482</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -550,13 +550,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9654316464986546</v>
+        <v>0.9745894641145427</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001584078911743224</v>
+        <v>0.000709952445015462</v>
       </c>
       <c r="E5" t="n">
-        <v>0.05590819731156232</v>
+        <v>0.3498775949300004</v>
       </c>
       <c r="F5" t="n">
         <v>5</v>
